--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem2/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem2/42/word_level_predictions_42.xlsx
@@ -3050,312 +3050,312 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C51" s="2" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E51" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K51" t="b">
-        <v>1</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C52" s="2" t="inlineStr">
         <is>
           <t>Recorder</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E52" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F52" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K52" t="b">
-        <v>1</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="G52" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C53" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E53" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F53" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K53" t="b">
-        <v>1</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="G53" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C54" s="2" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E54" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F54" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K54" t="b">
-        <v>1</v>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="G54" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C55" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D55" t="n">
+      <c r="D55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E55" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F55" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K55" t="b">
-        <v>1</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="G55" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C56" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D56" t="n">
+      <c r="D56" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E56" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F56" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K56" t="b">
-        <v>1</v>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="G56" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G80" s="2" t="b">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8533,7 +8533,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G156" t="b">
@@ -8557,57 +8557,57 @@
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="n">
+      <c r="A157" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B157" t="inlineStr">
+      <c r="B157" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
+      <c r="C157" s="2" t="inlineStr">
         <is>
           <t>Detected</t>
         </is>
       </c>
-      <c r="D157" t="n">
+      <c r="D157" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="E157" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="F157" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G157" t="b">
-        <v>1</v>
-      </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I157" t="b">
-        <v>1</v>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K157" t="b">
-        <v>1</v>
-      </c>
-      <c r="L157" t="inlineStr">
+      <c r="G157" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H157" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I157" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J157" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K157" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L157" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10642,158 +10642,158 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="2" t="n">
+      <c r="A197" t="n">
         <v>19</v>
       </c>
-      <c r="B197" s="2" t="inlineStr">
+      <c r="B197" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C197" s="2" t="inlineStr">
+      <c r="C197" t="inlineStr">
         <is>
           <t>Running</t>
         </is>
       </c>
-      <c r="D197" s="2" t="n">
+      <c r="D197" t="n">
         <v>0</v>
       </c>
-      <c r="E197" s="2" t="inlineStr">
+      <c r="E197" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F197" s="2" t="inlineStr">
+      <c r="F197" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G197" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H197" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I197" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J197" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K197" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L197" s="2" t="inlineStr">
+      <c r="G197" t="b">
+        <v>1</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I197" t="b">
+        <v>1</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K197" t="b">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="n">
+      <c r="A198" t="n">
         <v>19</v>
       </c>
-      <c r="B198" s="2" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C198" s="2" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t>Flight</t>
         </is>
       </c>
-      <c r="D198" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E198" s="2" t="inlineStr">
+      <c r="D198" t="n">
+        <v>1</v>
+      </c>
+      <c r="E198" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F198" s="2" t="inlineStr">
+      <c r="F198" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G198" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L198" s="2" t="inlineStr">
+      <c r="G198" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I198" t="b">
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K198" t="b">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="n">
+      <c r="A199" t="n">
         <v>19</v>
       </c>
-      <c r="B199" s="2" t="inlineStr">
+      <c r="B199" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C199" s="2" t="inlineStr">
+      <c r="C199" t="inlineStr">
         <is>
           <t>Simulator</t>
         </is>
       </c>
-      <c r="D199" s="2" t="n">
+      <c r="D199" t="n">
         <v>2</v>
       </c>
-      <c r="E199" s="2" t="inlineStr">
+      <c r="E199" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F199" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G199" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J199" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L199" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G199" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I199" t="b">
+        <v>1</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K199" t="b">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20545,7 +20545,7 @@
       </c>
       <c r="F387" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G387" s="2" t="b">
@@ -20557,11 +20557,11 @@
         </is>
       </c>
       <c r="I387" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J387" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K387" s="2" t="b">
@@ -20569,7 +20569,7 @@
       </c>
       <c r="L387" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20609,11 +20609,11 @@
         </is>
       </c>
       <c r="I388" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J388" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K388" s="2" t="b">
@@ -20649,7 +20649,7 @@
       </c>
       <c r="F389" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G389" s="2" t="b">
@@ -20661,11 +20661,11 @@
         </is>
       </c>
       <c r="I389" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J389" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K389" s="2" t="b">
@@ -20673,7 +20673,7 @@
       </c>
       <c r="L389" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20701,7 +20701,7 @@
       </c>
       <c r="F390" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G390" s="2" t="b">
@@ -20713,11 +20713,11 @@
         </is>
       </c>
       <c r="I390" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J390" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K390" s="2" t="b">
@@ -20725,7 +20725,7 @@
       </c>
       <c r="L390" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem2/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-100_remove/rem2/42/word_level_predictions_42.xlsx
@@ -3050,312 +3050,312 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" t="n">
         <v>4</v>
       </c>
-      <c r="B51" s="2" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="D51" t="n">
         <v>3</v>
       </c>
-      <c r="E51" s="2" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F51" s="2" t="inlineStr">
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>4</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Recorder</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>4</v>
+      </c>
+      <c r="E52" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G51" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L51" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
         <v>4</v>
       </c>
-      <c r="B52" s="2" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C52" s="2" t="inlineStr">
-        <is>
-          <t>Recorder</t>
-        </is>
-      </c>
-      <c r="D52" s="2" t="n">
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>5</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
         <v>4</v>
       </c>
-      <c r="E52" s="2" t="inlineStr">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>6</v>
+      </c>
+      <c r="E54" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F52" s="2" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G52" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L52" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
         <v>4</v>
       </c>
-      <c r="B53" s="2" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C53" s="2" t="inlineStr">
-        <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="D53" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E53" s="2" t="inlineStr">
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>is</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>7</v>
+      </c>
+      <c r="E55" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F53" s="2" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G53" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L53" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
         <v>4</v>
       </c>
-      <c r="B54" s="2" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C54" s="2" t="inlineStr">
-        <is>
-          <t>Index</t>
-        </is>
-      </c>
-      <c r="D54" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E54" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F54" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G54" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L54" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B55" s="2" t="inlineStr">
-        <is>
-          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
-        </is>
-      </c>
-      <c r="C55" s="2" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="D55" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E55" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F55" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G55" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L55" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B56" s="2" t="inlineStr">
-        <is>
-          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
-        </is>
-      </c>
-      <c r="C56" s="2" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D56" s="2" t="n">
+      <c r="D56" t="n">
         <v>8</v>
       </c>
-      <c r="E56" s="2" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F56" s="2" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G56" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L56" s="2" t="inlineStr">
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K56" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G80" s="2" t="b">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -8533,81 +8533,81 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G156" t="b">
+        <v>1</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I156" t="b">
+        <v>1</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K156" t="b">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>15</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Strong Interference Detected Be careful when flying long distances .</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Detected</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>2</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G156" t="b">
-        <v>1</v>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I156" t="b">
-        <v>1</v>
-      </c>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K156" t="b">
-        <v>1</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B157" s="2" t="inlineStr">
-        <is>
-          <t>Strong Interference Detected Be careful when flying long distances .</t>
-        </is>
-      </c>
-      <c r="C157" s="2" t="inlineStr">
-        <is>
-          <t>Detected</t>
-        </is>
-      </c>
-      <c r="D157" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E157" s="2" t="inlineStr">
+      <c r="F157" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F157" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G157" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H157" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I157" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J157" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K157" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L157" s="2" t="inlineStr">
+      <c r="G157" t="b">
+        <v>1</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I157" t="b">
+        <v>1</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K157" t="b">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -10642,158 +10642,158 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="n">
+      <c r="A197" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B197" t="inlineStr">
+      <c r="B197" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
+      <c r="C197" s="2" t="inlineStr">
         <is>
           <t>Running</t>
         </is>
       </c>
-      <c r="D197" t="n">
+      <c r="D197" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E197" t="inlineStr">
+      <c r="E197" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
+      <c r="F197" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G197" t="b">
-        <v>1</v>
-      </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I197" t="b">
-        <v>1</v>
-      </c>
-      <c r="J197" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K197" t="b">
-        <v>1</v>
-      </c>
-      <c r="L197" t="inlineStr">
+      <c r="G197" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H197" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I197" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J197" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K197" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L197" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
+      <c r="A198" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B198" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="C198" s="2" t="inlineStr">
         <is>
           <t>Flight</t>
         </is>
       </c>
-      <c r="D198" t="n">
-        <v>1</v>
-      </c>
-      <c r="E198" t="inlineStr">
+      <c r="D198" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E198" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
+      <c r="F198" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G198" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I198" t="b">
-        <v>1</v>
-      </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K198" t="b">
-        <v>1</v>
-      </c>
-      <c r="L198" t="inlineStr">
+      <c r="G198" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J198" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L198" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="n">
+      <c r="A199" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="B199" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
+      <c r="C199" s="2" t="inlineStr">
         <is>
           <t>Simulator</t>
         </is>
       </c>
-      <c r="D199" t="n">
+      <c r="D199" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E199" t="inlineStr">
+      <c r="E199" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G199" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I199" t="b">
-        <v>1</v>
-      </c>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K199" t="b">
-        <v>1</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F199" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G199" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J199" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L199" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -20545,7 +20545,7 @@
       </c>
       <c r="F387" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G387" s="2" t="b">
@@ -20557,11 +20557,11 @@
         </is>
       </c>
       <c r="I387" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J387" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K387" s="2" t="b">
@@ -20569,7 +20569,7 @@
       </c>
       <c r="L387" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -20609,11 +20609,11 @@
         </is>
       </c>
       <c r="I388" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J388" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K388" s="2" t="b">
@@ -20649,7 +20649,7 @@
       </c>
       <c r="F389" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G389" s="2" t="b">
@@ -20661,11 +20661,11 @@
         </is>
       </c>
       <c r="I389" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J389" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K389" s="2" t="b">
@@ -20673,7 +20673,7 @@
       </c>
       <c r="L389" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -20701,7 +20701,7 @@
       </c>
       <c r="F390" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G390" s="2" t="b">
@@ -20713,11 +20713,11 @@
         </is>
       </c>
       <c r="I390" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J390" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K390" s="2" t="b">
@@ -20725,7 +20725,7 @@
       </c>
       <c r="L390" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
